--- a/data/trans_dic/P15B_tráfico-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15B_tráfico-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.311456127601334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4262981720865443</v>
+        <v>0.4262981720865441</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2762550320348338</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3175503433668252</v>
+        <v>0.3216055884502715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1454243396266643</v>
+        <v>0.128243761621641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2449943040355204</v>
+        <v>0.2215986261900784</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1332168831392721</v>
+        <v>0.1153912373044506</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1016469472045151</v>
+        <v>0.1108080880783899</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07008611101748416</v>
+        <v>0.06335782494417275</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05558368634140053</v>
+        <v>0.05949197197906938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.268105961237162</v>
+        <v>0.2656401771527525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1603704043606742</v>
+        <v>0.1572127178007854</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1817660606700643</v>
+        <v>0.1761227458789224</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.586567502501383</v>
+        <v>0.5499358610341267</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6426863206858463</v>
+        <v>0.6525038246077793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5628738242291782</v>
+        <v>0.5524064182854788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6304420901541831</v>
+        <v>0.6393103038984898</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6691322776081838</v>
+        <v>0.6562761617954075</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4902653958571216</v>
+        <v>0.5012239152050516</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4381230729898527</v>
+        <v>0.4394343363397391</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2599859044943769</v>
+        <v>0.2515111469178338</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4615103816747747</v>
+        <v>0.4961430144628888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5244691910245929</v>
+        <v>0.5221187486051637</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4151583594579042</v>
+        <v>0.4136945489964486</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4126351685700444</v>
+        <v>0.4251577346686616</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1738963136049203</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3388827730863777</v>
+        <v>0.3388827730863778</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.337264505106428</v>
@@ -833,7 +833,7 @@
         <v>0.214691412930278</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2489273467873918</v>
+        <v>0.2489273467873916</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4225382275157931</v>
+        <v>0.458884519417579</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2488449466890837</v>
+        <v>0.2285304239764783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05464152784069892</v>
+        <v>0.0554271234401082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1186500679334732</v>
+        <v>0.1418736515136145</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09617907586087968</v>
+        <v>0.09776235813777952</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09631273854948062</v>
+        <v>0.06897668527837714</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06611164614809276</v>
+        <v>0.06554036638245861</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09037896220395279</v>
+        <v>0.08595895634756687</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3340523214526525</v>
+        <v>0.3170287036075775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1972737505316386</v>
+        <v>0.1912839844274124</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09353321556547656</v>
+        <v>0.09136059390390226</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1348193124609408</v>
+        <v>0.1380771462580687</v>
       </c>
     </row>
     <row r="9">
@@ -891,37 +891,37 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5837430860822517</v>
+        <v>0.5805839858064659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4439260249646148</v>
+        <v>0.4098281781816491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6245984910746285</v>
+        <v>0.6507425724538377</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6975168022068651</v>
+        <v>0.7379362282637858</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.383927036843041</v>
+        <v>0.38455833450777</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5505957249375386</v>
+        <v>0.5365406125068665</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3265254089582174</v>
+        <v>0.3568258993075601</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8139123836070601</v>
+        <v>0.8257936095743493</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4299283987670615</v>
+        <v>0.4167355499763624</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3916349880941524</v>
+        <v>0.3742624304974163</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3932827373520749</v>
+        <v>0.3918384791985227</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1339516910945479</v>
+        <v>0.1279756376428731</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01800459162779026</v>
+        <v>0.0180671308548143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08482809484258207</v>
+        <v>0.07914777255248204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02839548674987905</v>
+        <v>0.02856384801086747</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.0254399504736246</v>
+        <v>0.025888017001577</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05577464915414958</v>
+        <v>0.06971744043653019</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09582426663975267</v>
+        <v>0.1166797754554699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04235604389247563</v>
+        <v>0.041188268938375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09577633853684539</v>
+        <v>0.09351141909119345</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0693741981945967</v>
+        <v>0.05974832707166731</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6423274105310866</v>
+        <v>0.6147547476501367</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1485795109140622</v>
+        <v>0.1842269553153041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4477438082984781</v>
+        <v>0.4153628889202191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2818199015894793</v>
+        <v>0.2949066911559852</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.2603124408209845</v>
+        <v>0.2708220538380972</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3433336764293873</v>
+        <v>0.3604881300950583</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3433064644348687</v>
+        <v>0.3416345601058426</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5305833441928272</v>
+        <v>0.5397085214524027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.172396828078215</v>
+        <v>0.1701840859964681</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3498995888079221</v>
+        <v>0.3311044458446544</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2599304703362794</v>
+        <v>0.2501453883176266</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.1004386875027302</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4087345778484431</v>
+        <v>0.408734577848443</v>
       </c>
     </row>
     <row r="14">
@@ -1115,35 +1115,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09095552057152143</v>
+        <v>0.09133256563671317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09198294967396804</v>
+        <v>0.08845636078235589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09222100413625078</v>
+        <v>0.08908401076009427</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09732661745616024</v>
+        <v>0.0936628331126126</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.2759047864751551</v>
+        <v>0.2637763796474435</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06956202663263088</v>
+        <v>0.07095720430135112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0774449547605551</v>
+        <v>0.06494172422361581</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04446101251209576</v>
+        <v>0.03952260362834372</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1995512242170007</v>
+        <v>0.2184107690386056</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3184154150107576</v>
+        <v>0.3165142768274257</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4718420571481745</v>
+        <v>0.4518757621439611</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.361517857181159</v>
+        <v>0.3716867930057934</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6274618846981098</v>
+        <v>0.6314922358460306</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7263626369584082</v>
+        <v>0.718047503618696</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2678942138559668</v>
+        <v>0.2310430544442579</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.7804258710008721</v>
+        <v>0.7848368003324556</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3847563702716414</v>
+        <v>0.3956719687020002</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3259693589137114</v>
+        <v>0.3227638770959991</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1856137235750791</v>
+        <v>0.1887012710736404</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6171134804070013</v>
+        <v>0.6118670248435465</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07069726777305499</v>
+        <v>0.06840740466906101</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1259,15 +1259,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2539457512406776</v>
+        <v>0.2509420979848086</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>0.05587514885131727</v>
+        <v>0.05557919759637827</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2555516191579802</v>
+        <v>0.241838623354763</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -1284,36 +1284,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5566097563834538</v>
+        <v>0.5375443848676872</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.589988599251514</v>
+        <v>0.5850413968291265</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4672366852089306</v>
+        <v>0.4645182180719205</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6164145209564068</v>
+        <v>0.5388034592716245</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6944738670216191</v>
+        <v>0.5730323181052885</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7183397231070778</v>
+        <v>0.7201599702474817</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.4596744895983603</v>
+        <v>0.4620302397062084</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.593640485065939</v>
+        <v>0.584432563791092</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3880796073014784</v>
+        <v>0.3805738757046072</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5788162116027724</v>
+        <v>0.5738060677745211</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.1118719501221419</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08462684123978298</v>
+        <v>0.08462684123978299</v>
       </c>
     </row>
     <row r="20">
@@ -1373,33 +1373,33 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.1326998559068205</v>
+        <v>0.127267925872573</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03453564771671611</v>
+        <v>0.03464152419955078</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02912010476929994</v>
+        <v>0.02855792017551604</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.05303454506746216</v>
+        <v>0.05002089608085003</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02528033583742625</v>
+        <v>0.02512099819221801</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01315068571545106</v>
+        <v>0.01339500768019296</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
-        <v>0.1077263780359138</v>
+        <v>0.1184871219167128</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04376899228218368</v>
+        <v>0.04298529546503377</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03964381669534343</v>
+        <v>0.03654768669394656</v>
       </c>
     </row>
     <row r="21">
@@ -1411,33 +1411,33 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.5016230972834378</v>
+        <v>0.5118996411493391</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3216732885035247</v>
+        <v>0.316426783569221</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2779432223551725</v>
+        <v>0.2728960147857694</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.2758436110550448</v>
+        <v>0.2900272003945985</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2525742480052051</v>
+        <v>0.2544456682221983</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1551999463585039</v>
+        <v>0.1551086334275896</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.3330041258207246</v>
+        <v>0.3327866840082651</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2266636098700149</v>
+        <v>0.2248470136521898</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1838157878131055</v>
+        <v>0.1731971198183866</v>
       </c>
     </row>
     <row r="22">
@@ -1461,7 +1461,7 @@
         <v>0.2846347274577422</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3527909036702869</v>
+        <v>0.3527909036702868</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2145040048382699</v>
@@ -1496,40 +1496,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1358505410714017</v>
+        <v>0.1452011594922535</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06241302643011896</v>
+        <v>0.06975404391550086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1190507940303129</v>
+        <v>0.125832411189809</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2167293497655216</v>
+        <v>0.1934946108960672</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0543055135677298</v>
+        <v>0.05172664263514339</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08501852234912366</v>
+        <v>0.08557883591720231</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2106497800227654</v>
+        <v>0.2045573781643601</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.102168215124132</v>
+        <v>0.1126102600747863</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1483221560255454</v>
+        <v>0.1463334187706382</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0970482958103111</v>
+        <v>0.09233686694588171</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2059225994087239</v>
+        <v>0.2245572090137205</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1910079313621945</v>
+        <v>0.1967919946309945</v>
       </c>
     </row>
     <row r="24">
@@ -1540,40 +1540,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4973818267548101</v>
+        <v>0.5162139371866994</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2331433530710599</v>
+        <v>0.230521248432333</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4795888293518797</v>
+        <v>0.4924674622632532</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4939778565630233</v>
+        <v>0.4925301747900861</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4489329563355548</v>
+        <v>0.4337534079915506</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2909083585446017</v>
+        <v>0.279759442988551</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5966048961403937</v>
+        <v>0.5890548998108737</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3304019613802073</v>
+        <v>0.3383795507976031</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3964184060985398</v>
+        <v>0.3973838459706474</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2210193063526371</v>
+        <v>0.214822360628074</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4747384880355502</v>
+        <v>0.4820259651757278</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3750508161631881</v>
+        <v>0.3714649578510024</v>
       </c>
     </row>
     <row r="25">
@@ -1632,40 +1632,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3202349315621474</v>
+        <v>0.3473319898064135</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2214059147356275</v>
+        <v>0.2246273749473073</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08998133347542467</v>
+        <v>0.09917452496295395</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03260190904594868</v>
+        <v>0.03226920060010828</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07865404941189751</v>
+        <v>0.07833129070673565</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04210833013517142</v>
+        <v>0.04217156204285811</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06799048783366093</v>
+        <v>0.07045922642931098</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2159096279530029</v>
+        <v>0.2198931622834852</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2416885009477436</v>
+        <v>0.2330757938385182</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1712130793779244</v>
+        <v>0.1693278804520825</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1155498330545847</v>
+        <v>0.1103955330270756</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1589513204022431</v>
+        <v>0.1625522370988074</v>
       </c>
     </row>
     <row r="27">
@@ -1676,40 +1676,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7219710857644936</v>
+        <v>0.7393583027342709</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6297633776013452</v>
+        <v>0.6484290758133691</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3966500337824589</v>
+        <v>0.4050307583718727</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3044870341479838</v>
+        <v>0.3067918029379683</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3958858642646749</v>
+        <v>0.3960608733141938</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3427219620135472</v>
+        <v>0.351910808842912</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3478871023793303</v>
+        <v>0.3425637071165714</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5124602577492486</v>
+        <v>0.516098404499799</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5002978152943096</v>
+        <v>0.5068477268897857</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4391883421028651</v>
+        <v>0.4485060700288599</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3130617003791937</v>
+        <v>0.3142546646548827</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.36687245710357</v>
+        <v>0.3740544535406465</v>
       </c>
     </row>
     <row r="28">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1706999571345903</v>
+        <v>0.1668654857630554</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2038398637151009</v>
+        <v>0.200474093143238</v>
       </c>
     </row>
     <row r="30">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2886570450938562</v>
+        <v>0.2881133671487925</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2891545625034595</v>
+        <v>0.2884977100951789</v>
       </c>
     </row>
     <row r="31">
@@ -2123,37 +2123,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11761</v>
+        <v>11911</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2793</v>
+        <v>2463</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6624</v>
+        <v>5992</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3680</v>
+        <v>3187</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3069</v>
+        <v>3345</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2133</v>
+        <v>1928</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>911</v>
+        <v>975</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17336</v>
+        <v>17176</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7921</v>
+        <v>7765</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10447</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="7">
@@ -2164,40 +2164,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5452</v>
+        <v>5111</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23803</v>
+        <v>24167</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10811</v>
+        <v>10610</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17047</v>
+        <v>17286</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4743</v>
+        <v>4652</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13543</v>
+        <v>13845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13226</v>
+        <v>13266</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7913</v>
+        <v>7655</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7560</v>
+        <v>8127</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>33912</v>
+        <v>33760</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20506</v>
+        <v>20434</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23716</v>
+        <v>24436</v>
       </c>
     </row>
     <row r="8">
@@ -2300,40 +2300,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3318</v>
+        <v>3603</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7970</v>
+        <v>7319</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2931</v>
+        <v>3505</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2914</v>
+        <v>2087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3139</v>
+        <v>2985</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5617</v>
+        <v>5331</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12287</v>
+        <v>11914</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3202</v>
+        <v>3128</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8013</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="11">
@@ -2347,37 +2347,37 @@
         <v>7852</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18696</v>
+        <v>18595</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8149</v>
+        <v>7523</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15429</v>
+        <v>16075</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6253</v>
+        <v>6615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11616</v>
+        <v>11635</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8742</v>
+        <v>8519</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11340</v>
+        <v>12393</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13686</v>
+        <v>13886</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26778</v>
+        <v>25956</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13408</v>
+        <v>12813</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23374</v>
+        <v>23288</v>
       </c>
     </row>
     <row r="12">
@@ -2480,38 +2480,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2442</v>
+        <v>2333</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1971</v>
+        <v>1839</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1489</v>
+        <v>1862</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2150</v>
+        <v>2618</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3971</v>
+        <v>3862</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3554</v>
+        <v>3470</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3400</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="15">
@@ -2522,38 +2522,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11709</v>
+        <v>11206</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7853</v>
+        <v>9737</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10402</v>
+        <v>9649</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6288</v>
+        <v>6580</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>10650</v>
+        <v>11080</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4766</v>
+        <v>5004</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9168</v>
+        <v>9123</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11903</v>
+        <v>12108</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16165</v>
+        <v>15957</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12985</v>
+        <v>12288</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12740</v>
+        <v>12261</v>
       </c>
     </row>
     <row r="16">
@@ -2659,35 +2659,35 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2889</v>
+        <v>2901</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3531</v>
+        <v>3396</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2591</v>
+        <v>2503</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>953</v>
+        <v>917</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>5352</v>
+        <v>5117</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1921</v>
+        <v>1959</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3811</v>
+        <v>3195</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3324</v>
+        <v>2955</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9477</v>
+        <v>10373</v>
       </c>
     </row>
     <row r="19">
@@ -2698,38 +2698,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5674</v>
+        <v>5640</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14989</v>
+        <v>14355</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13879</v>
+        <v>14270</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17629</v>
+        <v>17742</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7113</v>
+        <v>7032</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4671</v>
+        <v>4028</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>15139</v>
+        <v>15225</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10624</v>
+        <v>10925</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>16039</v>
+        <v>15881</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13877</v>
+        <v>14108</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29309</v>
+        <v>29060</v>
       </c>
     </row>
     <row r="20">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>931</v>
+        <v>901</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
@@ -2847,15 +2847,15 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5028</v>
+        <v>4968</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="inlineStr"/>
       <c r="K22" s="6" t="n">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8426</v>
+        <v>7974</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
@@ -2872,36 +2872,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4074</v>
+        <v>3934</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7771</v>
+        <v>7706</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4730</v>
+        <v>4703</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4618</v>
+        <v>4036</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5421</v>
+        <v>4473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14222</v>
+        <v>14258</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>6953</v>
+        <v>6988</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>19573</v>
+        <v>19269</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5688</v>
+        <v>5578</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4640</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="24">
@@ -3005,33 +3005,33 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>4028</v>
+        <v>3863</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>1878</v>
+        <v>1771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
-        <v>7085</v>
+        <v>7792</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2796</v>
+        <v>2746</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2147</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="27">
@@ -3043,33 +3043,33 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>15225</v>
+        <v>15537</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8819</v>
+        <v>8675</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7232</v>
+        <v>7100</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>9769</v>
+        <v>10271</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9209</v>
+        <v>9277</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>21900</v>
+        <v>21886</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14479</v>
+        <v>14363</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9953</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="28">
@@ -3172,40 +3172,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3707</v>
+        <v>3962</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4104</v>
+        <v>4586</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3147</v>
+        <v>3327</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>12094</v>
+        <v>10798</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1000</v>
+        <v>953</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4987</v>
+        <v>5019</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5773</v>
+        <v>5606</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5970</v>
+        <v>6580</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>6778</v>
+        <v>6687</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>12073</v>
+        <v>11487</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>11087</v>
+        <v>12091</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>21820</v>
+        <v>22481</v>
       </c>
     </row>
     <row r="31">
@@ -3216,40 +3216,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13571</v>
+        <v>14084</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15329</v>
+        <v>15157</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12678</v>
+        <v>13019</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>27565</v>
+        <v>27485</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>8267</v>
+        <v>7988</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>17062</v>
+        <v>16408</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>16351</v>
+        <v>16144</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19306</v>
+        <v>19773</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>18116</v>
+        <v>18160</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>27495</v>
+        <v>26725</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>25561</v>
+        <v>25954</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>42844</v>
+        <v>42435</v>
       </c>
     </row>
     <row r="32">
@@ -3352,40 +3352,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8451</v>
+        <v>9166</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5317</v>
+        <v>5394</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3114</v>
+        <v>3432</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1818</v>
+        <v>1884</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7303</v>
+        <v>7437</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>12887</v>
+        <v>12428</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>8445</v>
+        <v>8352</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>7088</v>
+        <v>6772</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>9899</v>
+        <v>10123</v>
       </c>
     </row>
     <row r="35">
@@ -3396,40 +3396,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>19052</v>
+        <v>19511</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>15123</v>
+        <v>15571</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>13726</v>
+        <v>14016</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8663</v>
+        <v>8728</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>10662</v>
+        <v>10667</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8675</v>
+        <v>8908</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>9301</v>
+        <v>9159</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>17333</v>
+        <v>17456</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>26677</v>
+        <v>27026</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>21663</v>
+        <v>22123</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>19204</v>
+        <v>19277</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>22847</v>
+        <v>23294</v>
       </c>
     </row>
     <row r="36">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>39633</v>
+        <v>38743</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>92154</v>
+        <v>90633</v>
       </c>
     </row>
     <row r="39">
@@ -3576,40 +3576,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>67020</v>
+        <v>66894</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>130724</v>
+        <v>130427</v>
       </c>
     </row>
     <row r="40">
